--- a/Code/Results/Cases/Case_7_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.6860563729339</v>
+        <v>17.14260909405936</v>
       </c>
       <c r="C2">
-        <v>18.98266065951294</v>
+        <v>10.58348696826227</v>
       </c>
       <c r="D2">
-        <v>3.97347531464802</v>
+        <v>4.554217287177428</v>
       </c>
       <c r="E2">
-        <v>30.23648393267284</v>
+        <v>29.38633899821699</v>
       </c>
       <c r="F2">
-        <v>38.76251717641179</v>
+        <v>34.16371116137707</v>
       </c>
       <c r="G2">
-        <v>2.035790796207533</v>
+        <v>2.087380432732596</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>22.84729235190248</v>
+        <v>15.25459365836494</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.65727640360203</v>
+        <v>14.97195292177106</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.78576696556419</v>
+        <v>15.90511099674556</v>
       </c>
       <c r="C3">
-        <v>17.57782360096609</v>
+        <v>9.820315283642401</v>
       </c>
       <c r="D3">
-        <v>4.017072542470713</v>
+        <v>4.64280314482007</v>
       </c>
       <c r="E3">
-        <v>27.90843950785564</v>
+        <v>27.19511140505668</v>
       </c>
       <c r="F3">
-        <v>36.53778896715344</v>
+        <v>32.75259128013375</v>
       </c>
       <c r="G3">
-        <v>2.049718351565261</v>
+        <v>2.09750861754229</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.16937944013961</v>
+        <v>14.16392410430811</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.83183288070101</v>
+        <v>15.05274225486374</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56742945182398</v>
+        <v>15.10821458161384</v>
       </c>
       <c r="C4">
-        <v>16.67797877870501</v>
+        <v>9.329330614003146</v>
       </c>
       <c r="D4">
-        <v>4.048595775972355</v>
+        <v>4.697113826180653</v>
       </c>
       <c r="E4">
-        <v>26.42810009224404</v>
+        <v>25.79263138950953</v>
       </c>
       <c r="F4">
-        <v>35.16258789066275</v>
+        <v>31.89031112517808</v>
       </c>
       <c r="G4">
-        <v>2.058369428718315</v>
+        <v>2.103848387508273</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.09335655841098</v>
+        <v>13.46112384616475</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.94499209212667</v>
+        <v>15.10825620499501</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.05759063528462</v>
+        <v>14.77400643682095</v>
       </c>
       <c r="C5">
-        <v>16.30157215904912</v>
+        <v>9.12349445275745</v>
       </c>
       <c r="D5">
-        <v>4.062500711094365</v>
+        <v>4.719255604860192</v>
       </c>
       <c r="E5">
-        <v>25.81124211217277</v>
+        <v>25.2062719070996</v>
       </c>
       <c r="F5">
-        <v>34.60000394365789</v>
+        <v>31.5402224015483</v>
       </c>
       <c r="G5">
-        <v>2.061925956177871</v>
+        <v>2.106465181595679</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.64297904462258</v>
+        <v>13.1662393185594</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.99251577381518</v>
+        <v>15.13228851541651</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.97211500024855</v>
+        <v>14.71793578181829</v>
       </c>
       <c r="C6">
-        <v>16.23847421306657</v>
+        <v>9.088964397521384</v>
       </c>
       <c r="D6">
-        <v>4.064869965454329</v>
+        <v>4.722933659929756</v>
       </c>
       <c r="E6">
-        <v>25.70796970367387</v>
+        <v>25.10799769305054</v>
       </c>
       <c r="F6">
-        <v>34.50646321671086</v>
+        <v>31.48217727613143</v>
       </c>
       <c r="G6">
-        <v>2.062518561373221</v>
+        <v>2.106901787398959</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.56746576384864</v>
+        <v>13.11675690661557</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.00048978567077</v>
+        <v>15.13636213406898</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56060815240387</v>
+        <v>15.10374584200192</v>
       </c>
       <c r="C7">
-        <v>16.67294217834673</v>
+        <v>9.326578099489742</v>
       </c>
       <c r="D7">
-        <v>4.048779180764128</v>
+        <v>4.697412360194935</v>
       </c>
       <c r="E7">
-        <v>26.41983702209303</v>
+        <v>25.78478423411509</v>
       </c>
       <c r="F7">
-        <v>35.15500919395101</v>
+        <v>31.88558407706842</v>
       </c>
       <c r="G7">
-        <v>2.058417259618436</v>
+        <v>2.103883540140704</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.08733122253839</v>
+        <v>13.45718149840765</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.94562741485713</v>
+        <v>15.10857469950789</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.04128381488515</v>
+        <v>16.7235197257903</v>
       </c>
       <c r="C8">
-        <v>18.50579091562543</v>
+        <v>10.32491514365353</v>
       </c>
       <c r="D8">
-        <v>3.987431964011714</v>
+        <v>4.584797476462914</v>
       </c>
       <c r="E8">
-        <v>29.44382321763928</v>
+        <v>28.64233686838496</v>
       </c>
       <c r="F8">
-        <v>37.99736635776531</v>
+        <v>33.67642794131935</v>
       </c>
       <c r="G8">
-        <v>2.040576290824124</v>
+        <v>2.090849313291342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.27800857330237</v>
+        <v>14.8853069874124</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.71616071803662</v>
+        <v>14.99853466021395</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.51753905922907</v>
+        <v>19.61336252835083</v>
       </c>
       <c r="C9">
-        <v>21.82196341421448</v>
+        <v>12.11115199138132</v>
       </c>
       <c r="D9">
-        <v>3.912275075939498</v>
+        <v>4.361825781113359</v>
       </c>
       <c r="E9">
-        <v>35.01258270703364</v>
+        <v>33.81801313253987</v>
       </c>
       <c r="F9">
-        <v>43.50280733356935</v>
+        <v>37.21369783774971</v>
       </c>
       <c r="G9">
-        <v>2.006057297789665</v>
+        <v>2.066105373665479</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.2302230336773</v>
+        <v>17.43082404111333</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.31883629573272</v>
+        <v>14.83346829010965</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.6040119274433</v>
+        <v>21.57405283824939</v>
       </c>
       <c r="C10">
-        <v>24.11809964444113</v>
+        <v>13.32860068519959</v>
       </c>
       <c r="D10">
-        <v>3.897290820555436</v>
+        <v>4.194432700304119</v>
       </c>
       <c r="E10">
-        <v>38.95623002679839</v>
+        <v>37.39912960485927</v>
       </c>
       <c r="F10">
-        <v>47.64616286761738</v>
+        <v>39.82419306739583</v>
       </c>
       <c r="G10">
-        <v>1.980439622129887</v>
+        <v>2.048194834062741</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>28.95652204003856</v>
+        <v>19.15760270865909</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.06823392219344</v>
+        <v>14.74918207918944</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.97401751061296</v>
+        <v>22.43396437211989</v>
       </c>
       <c r="C11">
-        <v>25.14050512368208</v>
+        <v>13.86434428816859</v>
       </c>
       <c r="D11">
-        <v>3.902895788779362</v>
+        <v>4.116941445127225</v>
       </c>
       <c r="E11">
-        <v>40.73953012487516</v>
+        <v>38.99073380714413</v>
       </c>
       <c r="F11">
-        <v>49.61388573323841</v>
+        <v>41.01550801660453</v>
       </c>
       <c r="G11">
-        <v>1.968573965584387</v>
+        <v>2.040044805977731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.1673098805688</v>
+        <v>19.91510947421403</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.96599931472828</v>
+        <v>14.72046382827383</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.4889459331971</v>
+        <v>22.75530128986171</v>
       </c>
       <c r="C12">
-        <v>25.52536412335096</v>
+        <v>14.06486021350334</v>
       </c>
       <c r="D12">
-        <v>3.907195752292063</v>
+        <v>4.087352591013819</v>
       </c>
       <c r="E12">
-        <v>41.4156205979691</v>
+        <v>39.58910259302878</v>
       </c>
       <c r="F12">
-        <v>50.35947457922371</v>
+        <v>41.46742197561092</v>
       </c>
       <c r="G12">
-        <v>1.964033530371749</v>
+        <v>2.036952283932224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>30.62252887968749</v>
+        <v>20.19822732254276</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.92928816196613</v>
+        <v>14.71112949300709</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.37819969059435</v>
+        <v>22.68628110590108</v>
       </c>
       <c r="C13">
-        <v>25.44256414630501</v>
+        <v>14.02177618185436</v>
       </c>
       <c r="D13">
-        <v>3.906165709488273</v>
+        <v>4.093736825407688</v>
       </c>
       <c r="E13">
-        <v>41.26993348463972</v>
+        <v>39.46040737828528</v>
       </c>
       <c r="F13">
-        <v>50.1988484284729</v>
+        <v>41.37005382250256</v>
       </c>
       <c r="G13">
-        <v>1.965013800605893</v>
+        <v>2.037618698013493</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>30.52461773466139</v>
+        <v>20.13741372624262</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.93709969832644</v>
+        <v>14.71306855034523</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.01645164463397</v>
+        <v>22.46048504156242</v>
       </c>
       <c r="C14">
-        <v>25.17220812835699</v>
+        <v>13.88088661044492</v>
       </c>
       <c r="D14">
-        <v>3.903203372883754</v>
+        <v>4.114512364904199</v>
       </c>
       <c r="E14">
-        <v>40.79512109579799</v>
+        <v>39.04004222653458</v>
       </c>
       <c r="F14">
-        <v>49.67520601348839</v>
+        <v>41.05266956917383</v>
       </c>
       <c r="G14">
-        <v>1.968201476216098</v>
+        <v>2.039790545610781</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>30.20482054608819</v>
+        <v>19.93847473566624</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.96293686813421</v>
+        <v>14.71966403201032</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.79440207979358</v>
+        <v>22.3216293929427</v>
       </c>
       <c r="C15">
-        <v>25.00633669568662</v>
+        <v>13.79428830728935</v>
       </c>
       <c r="D15">
-        <v>3.901685442167934</v>
+        <v>4.127204526192068</v>
       </c>
       <c r="E15">
-        <v>40.50446744158057</v>
+        <v>38.78202585163375</v>
       </c>
       <c r="F15">
-        <v>49.35457356959927</v>
+        <v>40.85837478085533</v>
       </c>
       <c r="G15">
-        <v>1.970147315115587</v>
+        <v>2.041119854599863</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>30.00854021608404</v>
+        <v>19.8161421116765</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.9790342517736</v>
+        <v>14.72390962612943</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.51387694322359</v>
+        <v>21.51723689866504</v>
       </c>
       <c r="C16">
-        <v>24.05090853063464</v>
+        <v>13.29324459507284</v>
       </c>
       <c r="D16">
-        <v>3.897206115443924</v>
+        <v>4.199465610205995</v>
       </c>
       <c r="E16">
-        <v>38.83965836003409</v>
+        <v>37.29444643964531</v>
       </c>
       <c r="F16">
-        <v>47.51753576175201</v>
+        <v>39.74643197101431</v>
       </c>
       <c r="G16">
-        <v>1.98120946365229</v>
+        <v>2.048726922140066</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>28.87687880130706</v>
+        <v>19.10755842552141</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.07517685176756</v>
+        <v>14.7512654429502</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.72026284645488</v>
+        <v>21.015775283958</v>
       </c>
       <c r="C17">
-        <v>23.45968438938443</v>
+        <v>12.98140068635072</v>
       </c>
       <c r="D17">
-        <v>3.897893641442129</v>
+        <v>4.243416199345415</v>
       </c>
       <c r="E17">
-        <v>37.81709971016846</v>
+        <v>36.37296264804536</v>
       </c>
       <c r="F17">
-        <v>46.38957183784389</v>
+        <v>39.06539455705755</v>
       </c>
       <c r="G17">
-        <v>1.987930702112896</v>
+        <v>2.05338904744528</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28.1757200491274</v>
+        <v>18.6658875143167</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.13736934834726</v>
+        <v>14.77061702961497</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.26051912481666</v>
+        <v>20.72431320293865</v>
       </c>
       <c r="C18">
-        <v>23.11748370994958</v>
+        <v>12.80031821374381</v>
       </c>
       <c r="D18">
-        <v>3.899430590859541</v>
+        <v>4.268572324962339</v>
       </c>
       <c r="E18">
-        <v>37.22777716911268</v>
+        <v>35.83935109651134</v>
       </c>
       <c r="F18">
-        <v>45.75640442468539</v>
+        <v>38.67401426819679</v>
       </c>
       <c r="G18">
-        <v>1.991777811748405</v>
+        <v>2.056070753954066</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>27.76959567805851</v>
+        <v>18.40919347555111</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.17422579173254</v>
+        <v>14.78264281355568</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.1042669042136</v>
+        <v>20.62509920295058</v>
       </c>
       <c r="C19">
-        <v>23.00122851809624</v>
+        <v>12.73870492415834</v>
       </c>
       <c r="D19">
-        <v>3.900136375775497</v>
+        <v>4.277070110508963</v>
       </c>
       <c r="E19">
-        <v>37.02797911940722</v>
+        <v>35.65803216222696</v>
       </c>
       <c r="F19">
-        <v>45.552130458368</v>
+        <v>38.54155171680156</v>
       </c>
       <c r="G19">
-        <v>1.993077601845083</v>
+        <v>2.056978929997164</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.63157608274447</v>
+        <v>18.32181668167993</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.18688279643406</v>
+        <v>14.78686387596619</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.80507690073353</v>
+        <v>21.06946869254023</v>
       </c>
       <c r="C20">
-        <v>23.52283738651834</v>
+        <v>13.01477318400638</v>
       </c>
       <c r="D20">
-        <v>3.897699730276284</v>
+        <v>4.238750681908146</v>
       </c>
       <c r="E20">
-        <v>37.92605925158368</v>
+        <v>36.4714215478598</v>
       </c>
       <c r="F20">
-        <v>46.50972287102466</v>
+        <v>39.13785618487298</v>
       </c>
       <c r="G20">
-        <v>1.987217266159396</v>
+        <v>2.052892778175545</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28.25064691946943</v>
+        <v>18.71317708089984</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.13063454402114</v>
+        <v>14.76846329823401</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.1228012506292</v>
+        <v>22.52692061577363</v>
       </c>
       <c r="C21">
-        <v>25.25167276842318</v>
+        <v>13.92233119838743</v>
       </c>
       <c r="D21">
-        <v>3.904010856639954</v>
+        <v>4.108417155736634</v>
       </c>
       <c r="E21">
-        <v>40.93454190087964</v>
+        <v>39.16362209675558</v>
       </c>
       <c r="F21">
-        <v>49.82898532052951</v>
+        <v>41.14586900384818</v>
       </c>
       <c r="G21">
-        <v>1.967266611354586</v>
+        <v>2.039152843838496</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.29883310557811</v>
+        <v>19.99700670612921</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.95529064423835</v>
+        <v>14.71768360541497</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.61571641879945</v>
+        <v>23.45460727425023</v>
       </c>
       <c r="C22">
-        <v>26.36870568087368</v>
+        <v>14.50186529918298</v>
       </c>
       <c r="D22">
-        <v>3.921073001367636</v>
+        <v>4.021783903576947</v>
       </c>
       <c r="E22">
-        <v>42.90694360278363</v>
+        <v>40.89847768772495</v>
       </c>
       <c r="F22">
-        <v>52.00206037369908</v>
+        <v>42.46303136478168</v>
       </c>
       <c r="G22">
-        <v>1.953941915715641</v>
+        <v>2.030132903575741</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.61893328349589</v>
+        <v>20.81447094333056</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.85257207615159</v>
+        <v>14.69356593108811</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.82051227445733</v>
+        <v>22.9616410525777</v>
       </c>
       <c r="C23">
-        <v>25.77335474824495</v>
+        <v>14.19371246051256</v>
       </c>
       <c r="D23">
-        <v>3.910630879418855</v>
+        <v>4.068172783209686</v>
       </c>
       <c r="E23">
-        <v>41.85273161414862</v>
+        <v>39.97441166144614</v>
       </c>
       <c r="F23">
-        <v>50.84125966335277</v>
+        <v>41.75948078929942</v>
       </c>
       <c r="G23">
-        <v>1.961086315455074</v>
+        <v>2.034952901939478</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>30.91569051903626</v>
+        <v>20.38004168915222</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.90618392988251</v>
+        <v>14.70555023445473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.76674339469474</v>
+        <v>21.04520378399152</v>
       </c>
       <c r="C24">
-        <v>23.49429313781334</v>
+        <v>12.99969109978598</v>
       </c>
       <c r="D24">
-        <v>3.897783869881731</v>
+        <v>4.240860306328085</v>
       </c>
       <c r="E24">
-        <v>37.87680329551232</v>
+        <v>36.42692031088259</v>
       </c>
       <c r="F24">
-        <v>46.45540623951837</v>
+        <v>39.10509581001739</v>
       </c>
       <c r="G24">
-        <v>1.987539862362696</v>
+        <v>2.053117136753434</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.21678195326809</v>
+        <v>18.69180612225714</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.13367594165187</v>
+        <v>14.76943420757254</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.34496114895684</v>
+        <v>18.86109612844535</v>
       </c>
       <c r="C25">
-        <v>20.95189317957631</v>
+        <v>11.64535778423913</v>
       </c>
       <c r="D25">
-        <v>3.926609285513406</v>
+        <v>4.422596276594894</v>
       </c>
       <c r="E25">
-        <v>33.53810832588889</v>
+        <v>32.45991847396441</v>
       </c>
       <c r="F25">
-        <v>42.01921116909863</v>
+        <v>36.25477797293556</v>
       </c>
       <c r="G25">
-        <v>2.015395643751282</v>
+        <v>2.072733744025147</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.19483764971416</v>
+        <v>16.76832966930014</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.41985832261926</v>
+        <v>14.87211332130522</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.14260909405936</v>
+        <v>14.11134305401768</v>
       </c>
       <c r="C2">
-        <v>10.58348696826227</v>
+        <v>9.559708638210299</v>
       </c>
       <c r="D2">
-        <v>4.554217287177428</v>
+        <v>4.409140571439627</v>
       </c>
       <c r="E2">
-        <v>29.38633899821699</v>
+        <v>28.67088222156841</v>
       </c>
       <c r="F2">
-        <v>34.16371116137707</v>
+        <v>22.37877540593546</v>
       </c>
       <c r="G2">
-        <v>2.087380432732596</v>
+        <v>30.39871828308952</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.798160716295054</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.320480815559</v>
       </c>
       <c r="K2">
-        <v>15.25459365836494</v>
+        <v>15.21460197905161</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.05586184279562</v>
       </c>
       <c r="N2">
-        <v>14.97195292177106</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.19268675553041</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.90511099674556</v>
+        <v>13.18334690005815</v>
       </c>
       <c r="C3">
-        <v>9.820315283642401</v>
+        <v>8.938141722281937</v>
       </c>
       <c r="D3">
-        <v>4.64280314482007</v>
+        <v>4.324946080280998</v>
       </c>
       <c r="E3">
-        <v>27.19511140505668</v>
+        <v>26.77259566724835</v>
       </c>
       <c r="F3">
-        <v>32.75259128013375</v>
+        <v>21.67339700485518</v>
       </c>
       <c r="G3">
-        <v>2.09750861754229</v>
+        <v>29.32347238163268</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.537844976826542</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.22714708268235</v>
       </c>
       <c r="K3">
-        <v>14.16392410430811</v>
+        <v>15.11694124764319</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.24696730412102</v>
       </c>
       <c r="N3">
-        <v>15.05274225486374</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.37218629942347</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.10821458161384</v>
+        <v>12.58056776702511</v>
       </c>
       <c r="C4">
-        <v>9.329330614003146</v>
+        <v>8.535247198396432</v>
       </c>
       <c r="D4">
-        <v>4.697113826180653</v>
+        <v>4.271267607860348</v>
       </c>
       <c r="E4">
-        <v>25.79263138950953</v>
+        <v>25.54111990175213</v>
       </c>
       <c r="F4">
-        <v>31.89031112517808</v>
+        <v>21.24373518661553</v>
       </c>
       <c r="G4">
-        <v>2.103848387508273</v>
+        <v>28.665793478461</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.372704154460663</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.17460908074015</v>
       </c>
       <c r="K4">
-        <v>13.46112384616475</v>
+        <v>15.06589297460879</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.72324117680488</v>
       </c>
       <c r="N4">
-        <v>15.10825620499501</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.48439442671086</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.77400643682095</v>
+        <v>12.32660384822752</v>
       </c>
       <c r="C5">
-        <v>9.12349445275745</v>
+        <v>8.365709390516567</v>
       </c>
       <c r="D5">
-        <v>4.719255604860192</v>
+        <v>4.248907082272871</v>
       </c>
       <c r="E5">
-        <v>25.2062719070996</v>
+        <v>25.0226360056575</v>
       </c>
       <c r="F5">
-        <v>31.5402224015483</v>
+        <v>21.06970069934099</v>
       </c>
       <c r="G5">
-        <v>2.106465181595679</v>
+        <v>28.39871532233032</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.304046316467225</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.15436978222276</v>
       </c>
       <c r="K5">
-        <v>13.1662393185594</v>
+        <v>15.04725543168879</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.50303005886132</v>
       </c>
       <c r="N5">
-        <v>15.13228851541651</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.53063865568229</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.71793578181829</v>
+        <v>12.2839296001535</v>
       </c>
       <c r="C6">
-        <v>9.088964397521384</v>
+        <v>8.337234133466016</v>
       </c>
       <c r="D6">
-        <v>4.722933659929756</v>
+        <v>4.24516515385671</v>
       </c>
       <c r="E6">
-        <v>25.10799769305054</v>
+        <v>24.93553480954469</v>
       </c>
       <c r="F6">
-        <v>31.48217727613143</v>
+        <v>21.04087191720451</v>
       </c>
       <c r="G6">
-        <v>2.106901787398959</v>
+        <v>28.35443247899764</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.29256271553044</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.15107887386717</v>
       </c>
       <c r="K6">
-        <v>13.11675690661557</v>
+        <v>15.04428915561703</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.46605492017452</v>
       </c>
       <c r="N6">
-        <v>15.13636213406898</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.53834927440601</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.10374584200192</v>
+        <v>12.57717647330929</v>
       </c>
       <c r="C7">
-        <v>9.326578099489742</v>
+        <v>8.532982444962158</v>
       </c>
       <c r="D7">
-        <v>4.697412360194935</v>
+        <v>4.270967997208664</v>
       </c>
       <c r="E7">
-        <v>25.78478423411509</v>
+        <v>25.53419493870824</v>
       </c>
       <c r="F7">
-        <v>31.88558407706842</v>
+        <v>21.24138356251962</v>
       </c>
       <c r="G7">
-        <v>2.103883540140704</v>
+        <v>28.66218739235612</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.371783759474521</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.17433142704032</v>
       </c>
       <c r="K7">
-        <v>13.45718149840765</v>
+        <v>15.06563295916018</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.72029878718974</v>
       </c>
       <c r="N7">
-        <v>15.10857469950789</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.48501597118797</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.7235197257903</v>
+        <v>13.79819526323505</v>
       </c>
       <c r="C8">
-        <v>10.32491514365353</v>
+        <v>9.349793753252305</v>
       </c>
       <c r="D8">
-        <v>4.584797476462914</v>
+        <v>4.380529044846352</v>
       </c>
       <c r="E8">
-        <v>28.64233686838496</v>
+        <v>28.02998836785615</v>
       </c>
       <c r="F8">
-        <v>33.67642794131935</v>
+        <v>22.13495745695334</v>
       </c>
       <c r="G8">
-        <v>2.090849313291342</v>
+        <v>30.0276200262305</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.709488232490557</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.28729253003102</v>
       </c>
       <c r="K8">
-        <v>14.8853069874124</v>
+        <v>15.17903246679225</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.7825772520251</v>
       </c>
       <c r="N8">
-        <v>14.99853466021395</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.25417461335637</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.61336252835083</v>
+        <v>15.9325894908677</v>
       </c>
       <c r="C9">
-        <v>12.11115199138132</v>
+        <v>10.78380720592878</v>
       </c>
       <c r="D9">
-        <v>4.361825781113359</v>
+        <v>4.579140635705425</v>
       </c>
       <c r="E9">
-        <v>33.81801313253987</v>
+        <v>32.40495284414201</v>
       </c>
       <c r="F9">
-        <v>37.21369783774971</v>
+        <v>23.90681763248948</v>
       </c>
       <c r="G9">
-        <v>2.066105373665479</v>
+        <v>32.71354181347225</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.33092712793373</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.54788071429631</v>
       </c>
       <c r="K9">
-        <v>17.43082404111333</v>
+        <v>15.47548488750921</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.65093601101168</v>
       </c>
       <c r="N9">
-        <v>14.83346829010965</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.81651679613029</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.57405283824939</v>
+        <v>17.30850998451658</v>
       </c>
       <c r="C10">
-        <v>13.32860068519959</v>
+        <v>11.67278907131382</v>
       </c>
       <c r="D10">
-        <v>4.194432700304119</v>
+        <v>4.738976974481058</v>
       </c>
       <c r="E10">
-        <v>37.39912960485927</v>
+        <v>34.42781344441799</v>
       </c>
       <c r="F10">
-        <v>39.82419306739583</v>
+        <v>25.05412570142259</v>
       </c>
       <c r="G10">
-        <v>2.048194834062741</v>
+        <v>34.39610859418304</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.72729612934753</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.71096413910364</v>
       </c>
       <c r="K10">
-        <v>19.15760270865909</v>
+        <v>15.65386592250377</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.84876399510084</v>
       </c>
       <c r="N10">
-        <v>14.74918207918944</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.49168672970791</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.43396437211989</v>
+        <v>17.59370238758925</v>
       </c>
       <c r="C11">
-        <v>13.86434428816859</v>
+        <v>11.51533249890485</v>
       </c>
       <c r="D11">
-        <v>4.116941445127225</v>
+        <v>5.029871775156959</v>
       </c>
       <c r="E11">
-        <v>38.99073380714413</v>
+        <v>27.79816072341819</v>
       </c>
       <c r="F11">
-        <v>41.01550801660453</v>
+        <v>24.21747932076782</v>
       </c>
       <c r="G11">
-        <v>2.040044805977731</v>
+        <v>32.72527417140088</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.13897906130793</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.32307727167053</v>
       </c>
       <c r="K11">
-        <v>19.91510947421403</v>
+        <v>14.97419817477764</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.98844263630011</v>
       </c>
       <c r="N11">
-        <v>14.72046382827383</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.26240276082375</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.75530128986171</v>
+        <v>17.55696305226756</v>
       </c>
       <c r="C12">
-        <v>14.06486021350334</v>
+        <v>11.20548888673941</v>
       </c>
       <c r="D12">
-        <v>4.087352591013819</v>
+        <v>5.25391677802202</v>
       </c>
       <c r="E12">
-        <v>39.58910259302878</v>
+        <v>21.79197508878158</v>
       </c>
       <c r="F12">
-        <v>41.46742197561092</v>
+        <v>23.2488606952173</v>
       </c>
       <c r="G12">
-        <v>2.036952283932224</v>
+        <v>30.92891354807531</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.014572126574598</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.953226915629539</v>
       </c>
       <c r="K12">
-        <v>20.19822732254276</v>
+        <v>14.35199024132103</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.86620163408113</v>
       </c>
       <c r="N12">
-        <v>14.71112949300709</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.15550589859794</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.68628110590108</v>
+        <v>17.27024255640515</v>
       </c>
       <c r="C13">
-        <v>14.02177618185436</v>
+        <v>10.75129421533041</v>
       </c>
       <c r="D13">
-        <v>4.093736825407688</v>
+        <v>5.439418586451942</v>
       </c>
       <c r="E13">
-        <v>39.46040737828528</v>
+        <v>15.75805743244229</v>
       </c>
       <c r="F13">
-        <v>41.37005382250256</v>
+        <v>22.09667185747666</v>
       </c>
       <c r="G13">
-        <v>2.037618698013493</v>
+        <v>28.88178222379264</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.092379011693721</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.572310010536167</v>
       </c>
       <c r="K13">
-        <v>20.13741372624262</v>
+        <v>13.73311695282399</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.53261865027186</v>
       </c>
       <c r="N13">
-        <v>14.71306855034523</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.13404372904322</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.46048504156242</v>
+        <v>16.9534245255282</v>
       </c>
       <c r="C14">
-        <v>13.88088661044492</v>
+        <v>10.36353110722068</v>
       </c>
       <c r="D14">
-        <v>4.114512364904199</v>
+        <v>5.552778167167077</v>
       </c>
       <c r="E14">
-        <v>39.04004222653458</v>
+        <v>11.53537695957549</v>
       </c>
       <c r="F14">
-        <v>41.05266956917383</v>
+        <v>21.19736269143952</v>
       </c>
       <c r="G14">
-        <v>2.039790545610781</v>
+        <v>27.31680989852519</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.923569347806804</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.301141399318528</v>
       </c>
       <c r="K14">
-        <v>19.93847473566624</v>
+        <v>13.30368185448003</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.2004498113957</v>
       </c>
       <c r="N14">
-        <v>14.71966403201032</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.15864438624419</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.3216293929427</v>
+        <v>16.82104195750194</v>
       </c>
       <c r="C15">
-        <v>13.79428830728935</v>
+        <v>10.23581931649486</v>
       </c>
       <c r="D15">
-        <v>4.127204526192068</v>
+        <v>5.570723574221116</v>
       </c>
       <c r="E15">
-        <v>38.78202585163375</v>
+        <v>10.50303187549656</v>
       </c>
       <c r="F15">
-        <v>40.85837478085533</v>
+        <v>20.94012467390175</v>
       </c>
       <c r="G15">
-        <v>2.041119854599863</v>
+        <v>26.8828217209874</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.114457506640425</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.23412092964344</v>
       </c>
       <c r="K15">
-        <v>19.8161421116765</v>
+        <v>13.20200019044842</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.07241045625406</v>
       </c>
       <c r="N15">
-        <v>14.72390962612943</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.17991701990777</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.51723689866504</v>
+        <v>16.29633223778245</v>
       </c>
       <c r="C16">
-        <v>13.29324459507284</v>
+        <v>9.928522604825394</v>
       </c>
       <c r="D16">
-        <v>4.199465610205995</v>
+        <v>5.466651661363647</v>
       </c>
       <c r="E16">
-        <v>37.29444643964531</v>
+        <v>10.36668016175578</v>
       </c>
       <c r="F16">
-        <v>39.74643197101431</v>
+        <v>20.62949526198105</v>
       </c>
       <c r="G16">
-        <v>2.048726922140066</v>
+        <v>26.47413592680533</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.834674151451549</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.236708320008882</v>
       </c>
       <c r="K16">
-        <v>19.10755842552141</v>
+        <v>13.24511471231298</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.6263939563881</v>
       </c>
       <c r="N16">
-        <v>14.7512654429502</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.31558842993116</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.015775283958</v>
+        <v>16.06161742133889</v>
       </c>
       <c r="C17">
-        <v>12.98140068635072</v>
+        <v>9.904050488480493</v>
       </c>
       <c r="D17">
-        <v>4.243416199345415</v>
+        <v>5.324117327105441</v>
       </c>
       <c r="E17">
-        <v>36.37296264804536</v>
+        <v>12.57933237563563</v>
       </c>
       <c r="F17">
-        <v>39.06539455705755</v>
+        <v>20.88648206051543</v>
       </c>
       <c r="G17">
-        <v>2.05338904744528</v>
+        <v>27.02446518338717</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.126014831787545</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.384465102686594</v>
       </c>
       <c r="K17">
-        <v>18.6658875143167</v>
+        <v>13.50786522753901</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.46168747350603</v>
       </c>
       <c r="N17">
-        <v>14.77061702961497</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.40738860731158</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.72431320293865</v>
+        <v>16.05991077611501</v>
       </c>
       <c r="C18">
-        <v>12.80031821374381</v>
+        <v>10.1298478888651</v>
       </c>
       <c r="D18">
-        <v>4.268572324962339</v>
+        <v>5.137023918315974</v>
       </c>
       <c r="E18">
-        <v>35.83935109651134</v>
+        <v>17.2829649240227</v>
       </c>
       <c r="F18">
-        <v>38.67401426819679</v>
+        <v>21.65319166688729</v>
       </c>
       <c r="G18">
-        <v>2.056070753954066</v>
+        <v>28.45149981914238</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.044825847096281</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.671365825325077</v>
       </c>
       <c r="K18">
-        <v>18.40919347555111</v>
+        <v>13.98693831147373</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.53023175944023</v>
       </c>
       <c r="N18">
-        <v>14.78264281355568</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.48067671063567</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.62509920295058</v>
+        <v>16.24937762399276</v>
       </c>
       <c r="C19">
-        <v>12.73870492415834</v>
+        <v>10.54352242657772</v>
       </c>
       <c r="D19">
-        <v>4.277070110508963</v>
+        <v>4.934809438484032</v>
       </c>
       <c r="E19">
-        <v>35.65803216222696</v>
+        <v>23.65763562081006</v>
       </c>
       <c r="F19">
-        <v>38.54155171680156</v>
+        <v>22.7594307315604</v>
       </c>
       <c r="G19">
-        <v>2.056978929997164</v>
+        <v>30.45621659146215</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.989736573012092</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.04854856425833</v>
       </c>
       <c r="K19">
-        <v>18.32181668167993</v>
+        <v>14.60727672702438</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.7856685823893</v>
       </c>
       <c r="N19">
-        <v>14.78686387596619</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.54536119765787</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.06946869254023</v>
+        <v>16.95568415368508</v>
       </c>
       <c r="C20">
-        <v>13.01477318400638</v>
+        <v>11.44264650688563</v>
       </c>
       <c r="D20">
-        <v>4.238750681908146</v>
+        <v>4.698759768913409</v>
       </c>
       <c r="E20">
-        <v>36.4714215478598</v>
+        <v>33.86885639366306</v>
       </c>
       <c r="F20">
-        <v>39.13785618487298</v>
+        <v>24.74535945835266</v>
       </c>
       <c r="G20">
-        <v>2.052892778175545</v>
+        <v>33.9412819900616</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.622041335757321</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.66398288782334</v>
       </c>
       <c r="K20">
-        <v>18.71317708089984</v>
+        <v>15.59958869664377</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.54062634389999</v>
       </c>
       <c r="N20">
-        <v>14.76846329823401</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.57590436290573</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.52692061577363</v>
+        <v>18.01967281154862</v>
       </c>
       <c r="C21">
-        <v>13.92233119838743</v>
+        <v>12.1930714159943</v>
       </c>
       <c r="D21">
-        <v>4.108417155736634</v>
+        <v>4.780126094649385</v>
       </c>
       <c r="E21">
-        <v>39.16362209675558</v>
+        <v>36.69835843921953</v>
       </c>
       <c r="F21">
-        <v>41.14586900384818</v>
+        <v>25.86838566100442</v>
       </c>
       <c r="G21">
-        <v>2.039152843838496</v>
+        <v>35.6653303602992</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.978172160731396</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.8809032915354</v>
       </c>
       <c r="K21">
-        <v>19.99700670612921</v>
+        <v>15.89113444505329</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.48852272399891</v>
       </c>
       <c r="N21">
-        <v>14.71768360541497</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.34637463538024</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.45460727425023</v>
+        <v>18.66882066710349</v>
       </c>
       <c r="C22">
-        <v>14.50186529918298</v>
+        <v>12.63278403404871</v>
       </c>
       <c r="D22">
-        <v>4.021783903576947</v>
+        <v>4.843675935843509</v>
       </c>
       <c r="E22">
-        <v>40.89847768772495</v>
+        <v>38.03692105818443</v>
       </c>
       <c r="F22">
-        <v>42.46303136478168</v>
+        <v>26.52004440845773</v>
       </c>
       <c r="G22">
-        <v>2.030132903575741</v>
+        <v>36.64254133637813</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>4.187700996620566</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.00025099644442</v>
       </c>
       <c r="K22">
-        <v>20.81447094333056</v>
+        <v>16.04645723873718</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.0617984470102</v>
       </c>
       <c r="N22">
-        <v>14.69356593108811</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.19162747800209</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.9616410525777</v>
+        <v>18.32485134372746</v>
       </c>
       <c r="C23">
-        <v>14.19371246051256</v>
+        <v>12.39970758011142</v>
       </c>
       <c r="D23">
-        <v>4.068172783209686</v>
+        <v>4.809950051742256</v>
       </c>
       <c r="E23">
-        <v>39.97441166144614</v>
+        <v>37.32745587068732</v>
       </c>
       <c r="F23">
-        <v>41.75948078929942</v>
+        <v>26.17240790635348</v>
       </c>
       <c r="G23">
-        <v>2.034952901939478</v>
+        <v>36.12140757416237</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>4.076183696648989</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.93608133425744</v>
       </c>
       <c r="K23">
-        <v>20.38004168915222</v>
+        <v>15.96260043524008</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.75793886168202</v>
       </c>
       <c r="N23">
-        <v>14.70555023445473</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.27412793367719</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.04520378399152</v>
+        <v>16.96703000082806</v>
       </c>
       <c r="C24">
-        <v>12.99969109978598</v>
+        <v>11.48144316641529</v>
       </c>
       <c r="D24">
-        <v>4.240860306328085</v>
+        <v>4.678053114668328</v>
       </c>
       <c r="E24">
-        <v>36.42692031088259</v>
+        <v>34.53099925936286</v>
       </c>
       <c r="F24">
-        <v>39.10509581001739</v>
+        <v>24.85266519589911</v>
       </c>
       <c r="G24">
-        <v>2.053117136753434</v>
+        <v>34.13906972117652</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.646741983846477</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.70326352320215</v>
       </c>
       <c r="K24">
-        <v>18.69180612225714</v>
+        <v>15.66565617424809</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.56058448381463</v>
       </c>
       <c r="N24">
-        <v>14.76943420757254</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.58871754736695</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.86109612844535</v>
+        <v>15.38275425618742</v>
       </c>
       <c r="C25">
-        <v>11.64535778423913</v>
+        <v>10.41368191587719</v>
       </c>
       <c r="D25">
-        <v>4.422596276594894</v>
+        <v>4.527216204309184</v>
       </c>
       <c r="E25">
-        <v>32.45991847396441</v>
+        <v>31.27642538173633</v>
       </c>
       <c r="F25">
-        <v>36.25477797293556</v>
+        <v>23.42640729416441</v>
       </c>
       <c r="G25">
-        <v>2.072733744025147</v>
+        <v>31.98755550965284</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.166987990932316</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.47303098723704</v>
       </c>
       <c r="K25">
-        <v>16.76832966930014</v>
+        <v>15.38689196267655</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.16844599038092</v>
       </c>
       <c r="N25">
-        <v>14.87211332130522</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.93342541207045</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.11134305401768</v>
+        <v>13.69719857148043</v>
       </c>
       <c r="C2">
-        <v>9.559708638210299</v>
+        <v>10.14637702267621</v>
       </c>
       <c r="D2">
-        <v>4.409140571439627</v>
+        <v>4.506030130192594</v>
       </c>
       <c r="E2">
-        <v>28.67088222156841</v>
+        <v>28.6556708227866</v>
       </c>
       <c r="F2">
-        <v>22.37877540593546</v>
+        <v>21.52713828684514</v>
       </c>
       <c r="G2">
-        <v>30.39871828308952</v>
+        <v>28.33105075167981</v>
       </c>
       <c r="H2">
-        <v>2.798160716295054</v>
+        <v>2.787457243677595</v>
       </c>
       <c r="J2">
-        <v>10.320480815559</v>
+        <v>10.48155722100593</v>
       </c>
       <c r="K2">
-        <v>15.21460197905161</v>
+        <v>14.46535127765588</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.78899335566717</v>
       </c>
       <c r="M2">
-        <v>13.05586184279562</v>
+        <v>8.769402234068826</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.97496155416874</v>
       </c>
       <c r="P2">
-        <v>12.19268675553041</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.0670182760886</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.18334690005815</v>
+        <v>12.84477201608699</v>
       </c>
       <c r="C3">
-        <v>8.938141722281937</v>
+        <v>9.427494788561134</v>
       </c>
       <c r="D3">
-        <v>4.324946080280998</v>
+        <v>4.391306875903582</v>
       </c>
       <c r="E3">
-        <v>26.77259566724835</v>
+        <v>26.77459835215952</v>
       </c>
       <c r="F3">
-        <v>21.67339700485518</v>
+        <v>20.91821078193703</v>
       </c>
       <c r="G3">
-        <v>29.32347238163268</v>
+        <v>27.43951255935604</v>
       </c>
       <c r="H3">
-        <v>2.537844976826542</v>
+        <v>2.539248180572355</v>
       </c>
       <c r="J3">
-        <v>10.22714708268235</v>
+        <v>10.38256495595445</v>
       </c>
       <c r="K3">
-        <v>15.11694124764319</v>
+        <v>14.43313165784774</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.88865901537554</v>
       </c>
       <c r="M3">
-        <v>12.24696730412102</v>
+        <v>8.589090260790853</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.18551644256635</v>
       </c>
       <c r="P3">
-        <v>12.37218629942347</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.23804580406137</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.58056776702511</v>
+        <v>12.29099401511927</v>
       </c>
       <c r="C4">
-        <v>8.535247198396432</v>
+        <v>8.960762263206345</v>
       </c>
       <c r="D4">
-        <v>4.271267607860348</v>
+        <v>4.318456548766827</v>
       </c>
       <c r="E4">
-        <v>25.54111990175213</v>
+        <v>25.55397286338704</v>
       </c>
       <c r="F4">
-        <v>21.24373518661553</v>
+        <v>20.54698206693756</v>
       </c>
       <c r="G4">
-        <v>28.665793478461</v>
+        <v>26.89858301779315</v>
       </c>
       <c r="H4">
-        <v>2.372704154460663</v>
+        <v>2.381667693917346</v>
       </c>
       <c r="J4">
-        <v>10.17460908074015</v>
+        <v>10.32343569808597</v>
       </c>
       <c r="K4">
-        <v>15.06589297460879</v>
+        <v>14.41989849163318</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.95136027065561</v>
       </c>
       <c r="M4">
-        <v>11.72324117680488</v>
+        <v>8.504227332112645</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.67423274217509</v>
       </c>
       <c r="P4">
-        <v>12.48439442671086</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.34490115719764</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.32660384822752</v>
+        <v>12.05767279379229</v>
       </c>
       <c r="C5">
-        <v>8.365709390516567</v>
+        <v>8.764166280963652</v>
       </c>
       <c r="D5">
-        <v>4.248907082272871</v>
+        <v>4.288186338867486</v>
       </c>
       <c r="E5">
-        <v>25.0226360056575</v>
+        <v>25.04000028459946</v>
       </c>
       <c r="F5">
-        <v>21.06970069934099</v>
+        <v>20.39650293487368</v>
       </c>
       <c r="G5">
-        <v>28.39871532233032</v>
+        <v>26.67994902036612</v>
       </c>
       <c r="H5">
-        <v>2.304046316467225</v>
+        <v>2.316125997560419</v>
       </c>
       <c r="J5">
-        <v>10.15436978222276</v>
+        <v>10.29974990117812</v>
       </c>
       <c r="K5">
-        <v>15.04725543168879</v>
+        <v>14.41608000069935</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.97729086260397</v>
       </c>
       <c r="M5">
-        <v>11.50303005886132</v>
+        <v>8.476245709446555</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.45922835230386</v>
       </c>
       <c r="P5">
-        <v>12.53063865568229</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.38892706466773</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.2839296001535</v>
+        <v>12.01846760771842</v>
       </c>
       <c r="C6">
-        <v>8.337234133466016</v>
+        <v>8.731134474785913</v>
       </c>
       <c r="D6">
-        <v>4.24516515385671</v>
+        <v>4.283125479474852</v>
       </c>
       <c r="E6">
-        <v>24.93553480954469</v>
+        <v>24.95365420788761</v>
       </c>
       <c r="F6">
-        <v>21.04087191720451</v>
+        <v>20.3715682137301</v>
       </c>
       <c r="G6">
-        <v>28.35443247899764</v>
+        <v>26.64375871645233</v>
       </c>
       <c r="H6">
-        <v>2.29256271553044</v>
+        <v>2.305162052547451</v>
       </c>
       <c r="J6">
-        <v>10.15107887386717</v>
+        <v>10.29584147490376</v>
       </c>
       <c r="K6">
-        <v>15.04428915561703</v>
+        <v>14.41553889853235</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.98161955031745</v>
       </c>
       <c r="M6">
-        <v>11.46605492017452</v>
+        <v>8.471999710721281</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.42312634126405</v>
       </c>
       <c r="P6">
-        <v>12.53834927440601</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.39626712070565</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.57717647330929</v>
+        <v>12.28362475866945</v>
       </c>
       <c r="C7">
-        <v>8.532982444962158</v>
+        <v>8.946911131627461</v>
       </c>
       <c r="D7">
-        <v>4.270967997208664</v>
+        <v>4.32070158663939</v>
       </c>
       <c r="E7">
-        <v>25.53419493870824</v>
+        <v>25.54644795008874</v>
       </c>
       <c r="F7">
-        <v>21.24138356251962</v>
+        <v>20.5243531701826</v>
       </c>
       <c r="G7">
-        <v>28.66218739235612</v>
+        <v>26.97891853442971</v>
       </c>
       <c r="H7">
-        <v>2.371783759474521</v>
+        <v>2.380329331148835</v>
       </c>
       <c r="J7">
-        <v>10.17433142704032</v>
+        <v>10.27456940458807</v>
       </c>
       <c r="K7">
-        <v>15.06563295916018</v>
+        <v>14.40975487348768</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.94334091561926</v>
       </c>
       <c r="M7">
-        <v>11.72029878718974</v>
+        <v>8.496772012910039</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.66516120014951</v>
       </c>
       <c r="P7">
-        <v>12.48501597118797</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.34394089353865</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.79819526323505</v>
+        <v>13.39650697125821</v>
       </c>
       <c r="C8">
-        <v>9.349793753252305</v>
+        <v>9.869378415446318</v>
       </c>
       <c r="D8">
-        <v>4.380529044846352</v>
+        <v>4.475786858083139</v>
       </c>
       <c r="E8">
-        <v>28.02998836785615</v>
+        <v>28.01863970502167</v>
       </c>
       <c r="F8">
-        <v>22.13495745695334</v>
+        <v>21.25078548318967</v>
       </c>
       <c r="G8">
-        <v>30.0276200262305</v>
+        <v>28.28920056905508</v>
       </c>
       <c r="H8">
-        <v>2.709488232490557</v>
+        <v>2.701509439952258</v>
       </c>
       <c r="J8">
-        <v>10.28729253003102</v>
+        <v>10.28900198105592</v>
       </c>
       <c r="K8">
-        <v>15.17903246679225</v>
+        <v>14.41980610596797</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.7972838370267</v>
       </c>
       <c r="M8">
-        <v>12.7825772520251</v>
+        <v>8.676678145489818</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.68914883137277</v>
       </c>
       <c r="P8">
-        <v>12.25417461335637</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.1208661991547</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9325894908677</v>
+        <v>15.35424199200757</v>
       </c>
       <c r="C9">
-        <v>10.78380720592878</v>
+        <v>11.51990854047349</v>
       </c>
       <c r="D9">
-        <v>4.579140635705425</v>
+        <v>4.750063565623607</v>
       </c>
       <c r="E9">
-        <v>32.40495284414201</v>
+        <v>32.35113567593279</v>
       </c>
       <c r="F9">
-        <v>23.90681763248948</v>
+        <v>22.76723257600408</v>
       </c>
       <c r="G9">
-        <v>32.71354181347225</v>
+        <v>30.59287689969808</v>
       </c>
       <c r="H9">
-        <v>3.33092712793373</v>
+        <v>3.293049153758307</v>
       </c>
       <c r="J9">
-        <v>10.54788071429631</v>
+        <v>10.50649131060135</v>
       </c>
       <c r="K9">
-        <v>15.47548488750921</v>
+        <v>14.53165998524874</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.55334615959115</v>
       </c>
       <c r="M9">
-        <v>14.65093601101168</v>
+        <v>9.253826259792111</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.50870236181134</v>
       </c>
       <c r="P9">
-        <v>11.81651679613029</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.70282885661462</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.30850998451658</v>
+        <v>16.59951707079113</v>
       </c>
       <c r="C10">
-        <v>11.67278907131382</v>
+        <v>12.48993959497042</v>
       </c>
       <c r="D10">
-        <v>4.738976974481058</v>
+        <v>4.977661102205843</v>
       </c>
       <c r="E10">
-        <v>34.42781344441799</v>
+        <v>34.34061572990608</v>
       </c>
       <c r="F10">
-        <v>25.05412570142259</v>
+        <v>23.63842078768672</v>
       </c>
       <c r="G10">
-        <v>34.39610859418304</v>
+        <v>32.45756201479305</v>
       </c>
       <c r="H10">
-        <v>3.72729612934753</v>
+        <v>3.666481015734306</v>
       </c>
       <c r="J10">
-        <v>10.71096413910364</v>
+        <v>10.36691811178917</v>
       </c>
       <c r="K10">
-        <v>15.65386592250377</v>
+        <v>14.52236736665727</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.29215087823737</v>
       </c>
       <c r="M10">
-        <v>15.84876399510084</v>
+        <v>9.674873967667427</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.64589567464146</v>
       </c>
       <c r="P10">
-        <v>11.49168672970791</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.39071306849157</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.59370238758925</v>
+        <v>16.85571244443156</v>
       </c>
       <c r="C11">
-        <v>11.51533249890485</v>
+        <v>12.198427321166</v>
       </c>
       <c r="D11">
-        <v>5.029871775156959</v>
+        <v>5.324711683705527</v>
       </c>
       <c r="E11">
-        <v>27.79816072341819</v>
+        <v>27.6966323277045</v>
       </c>
       <c r="F11">
-        <v>24.21747932076782</v>
+        <v>22.62430792186281</v>
       </c>
       <c r="G11">
-        <v>32.72527417140088</v>
+        <v>31.77151397013819</v>
       </c>
       <c r="H11">
-        <v>4.13897906130793</v>
+        <v>4.080256148945627</v>
       </c>
       <c r="J11">
-        <v>10.32307727167053</v>
+        <v>9.50243854561808</v>
       </c>
       <c r="K11">
-        <v>14.97419817477764</v>
+        <v>13.79564989336575</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.68681510572463</v>
       </c>
       <c r="M11">
-        <v>15.98844263630011</v>
+        <v>9.247000183412807</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.72475111328621</v>
       </c>
       <c r="P11">
-        <v>11.26240276082375</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.2139654671329</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.55696305226756</v>
+        <v>16.83233417538928</v>
       </c>
       <c r="C12">
-        <v>11.20548888673941</v>
+        <v>11.7888157928428</v>
       </c>
       <c r="D12">
-        <v>5.25391677802202</v>
+        <v>5.571772822806776</v>
       </c>
       <c r="E12">
-        <v>21.79197508878158</v>
+        <v>21.68187726185441</v>
       </c>
       <c r="F12">
-        <v>23.2488606952173</v>
+        <v>21.62904183075499</v>
       </c>
       <c r="G12">
-        <v>30.92891354807531</v>
+        <v>30.51380647764279</v>
       </c>
       <c r="H12">
-        <v>5.014572126574598</v>
+        <v>4.967820915869379</v>
       </c>
       <c r="J12">
-        <v>9.953226915629539</v>
+        <v>8.986916833588774</v>
       </c>
       <c r="K12">
-        <v>14.35199024132103</v>
+        <v>13.21515562943838</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.26723226696829</v>
       </c>
       <c r="M12">
-        <v>15.86620163408113</v>
+        <v>8.808458393308563</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.5802592169303</v>
       </c>
       <c r="P12">
-        <v>11.15550589859794</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.15564540013742</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.27024255640515</v>
+        <v>16.60087670295209</v>
       </c>
       <c r="C13">
-        <v>10.75129421533041</v>
+        <v>11.27243946248649</v>
       </c>
       <c r="D13">
-        <v>5.439418586451942</v>
+        <v>5.746730125866577</v>
       </c>
       <c r="E13">
-        <v>15.75805743244229</v>
+        <v>15.6406851158338</v>
       </c>
       <c r="F13">
-        <v>22.09667185747666</v>
+        <v>20.60965107757415</v>
       </c>
       <c r="G13">
-        <v>28.88178222379264</v>
+        <v>28.5194989588511</v>
       </c>
       <c r="H13">
-        <v>6.092379011693721</v>
+        <v>6.058417878351232</v>
       </c>
       <c r="J13">
-        <v>9.572310010536167</v>
+        <v>8.76431328780544</v>
       </c>
       <c r="K13">
-        <v>13.73311695282399</v>
+        <v>12.72904387937711</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.96350201592315</v>
       </c>
       <c r="M13">
-        <v>15.53261865027186</v>
+        <v>8.353137207962114</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.26395451409139</v>
       </c>
       <c r="P13">
-        <v>11.13404372904322</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.17449312638015</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.9534245255282</v>
+        <v>16.34193770384116</v>
       </c>
       <c r="C14">
-        <v>10.36353110722068</v>
+        <v>10.85587602525977</v>
       </c>
       <c r="D14">
-        <v>5.552778167167077</v>
+        <v>5.836743807830876</v>
       </c>
       <c r="E14">
-        <v>11.53537695957549</v>
+        <v>11.40852530850036</v>
       </c>
       <c r="F14">
-        <v>21.19736269143952</v>
+        <v>19.87387630729052</v>
       </c>
       <c r="G14">
-        <v>27.31680989852519</v>
+        <v>26.78076470552613</v>
       </c>
       <c r="H14">
-        <v>6.923569347806804</v>
+        <v>6.897383047221421</v>
       </c>
       <c r="J14">
-        <v>9.301141399318528</v>
+        <v>8.720045569983913</v>
       </c>
       <c r="K14">
-        <v>13.30368185448003</v>
+        <v>12.42945340445789</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.79721335367077</v>
       </c>
       <c r="M14">
-        <v>15.2004498113957</v>
+        <v>8.027435503737733</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.96127153487488</v>
       </c>
       <c r="P14">
-        <v>11.15864438624419</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.21923661638677</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.82104195750194</v>
+        <v>16.23230497756298</v>
       </c>
       <c r="C15">
-        <v>10.23581931649486</v>
+        <v>10.72720628047662</v>
       </c>
       <c r="D15">
-        <v>5.570723574221116</v>
+        <v>5.842304913417943</v>
       </c>
       <c r="E15">
-        <v>10.50303187549656</v>
+        <v>10.37472529859322</v>
       </c>
       <c r="F15">
-        <v>20.94012467390175</v>
+        <v>19.68665535565258</v>
       </c>
       <c r="G15">
-        <v>26.8828217209874</v>
+        <v>26.21551749422399</v>
       </c>
       <c r="H15">
-        <v>7.114457506640425</v>
+        <v>7.090434468114848</v>
       </c>
       <c r="J15">
-        <v>9.23412092964344</v>
+        <v>8.756594667218225</v>
       </c>
       <c r="K15">
-        <v>13.20200019044842</v>
+        <v>12.37452890492538</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.7761555906515</v>
       </c>
       <c r="M15">
-        <v>15.07241045625406</v>
+        <v>7.945818274160947</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.84807596358153</v>
       </c>
       <c r="P15">
-        <v>11.17991701990777</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.24218688833242</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.29633223778245</v>
+        <v>15.78342256594416</v>
       </c>
       <c r="C16">
-        <v>9.928522604825394</v>
+        <v>10.46716926975028</v>
       </c>
       <c r="D16">
-        <v>5.466651661363647</v>
+        <v>5.682533382322033</v>
       </c>
       <c r="E16">
-        <v>10.36668016175578</v>
+        <v>10.26490110850034</v>
       </c>
       <c r="F16">
-        <v>20.62949526198105</v>
+        <v>19.62833306647718</v>
       </c>
       <c r="G16">
-        <v>26.47413592680533</v>
+        <v>25.08357943684735</v>
       </c>
       <c r="H16">
-        <v>6.834674151451549</v>
+        <v>6.815776046094089</v>
       </c>
       <c r="J16">
-        <v>9.236708320008882</v>
+        <v>9.17653238554419</v>
       </c>
       <c r="K16">
-        <v>13.24511471231298</v>
+        <v>12.54476124934093</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.96226599516449</v>
       </c>
       <c r="M16">
-        <v>14.6263939563881</v>
+        <v>7.927518705673285</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.46729115919891</v>
       </c>
       <c r="P16">
-        <v>11.31558842993116</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.35391614931746</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.06161742133889</v>
+        <v>15.5705225232513</v>
       </c>
       <c r="C17">
-        <v>9.904050488480493</v>
+        <v>10.48340463553311</v>
       </c>
       <c r="D17">
-        <v>5.324117327105441</v>
+        <v>5.515980471177021</v>
       </c>
       <c r="E17">
-        <v>12.57933237563563</v>
+        <v>12.50034604246641</v>
       </c>
       <c r="F17">
-        <v>20.88648206051543</v>
+        <v>19.96380276520509</v>
       </c>
       <c r="G17">
-        <v>27.02446518338717</v>
+        <v>25.28134361184188</v>
       </c>
       <c r="H17">
-        <v>6.126014831787545</v>
+        <v>6.107812816651394</v>
       </c>
       <c r="J17">
-        <v>9.384465102686594</v>
+        <v>9.487058678734082</v>
       </c>
       <c r="K17">
-        <v>13.50786522753901</v>
+        <v>12.82597160163413</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.1962907684412</v>
       </c>
       <c r="M17">
-        <v>14.46168747350603</v>
+        <v>8.076556484223959</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.32969194945369</v>
       </c>
       <c r="P17">
-        <v>11.40738860731158</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.42214095561683</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.05991077611501</v>
+        <v>15.55239524392725</v>
       </c>
       <c r="C18">
-        <v>10.1298478888651</v>
+        <v>10.76719311395321</v>
       </c>
       <c r="D18">
-        <v>5.137023918315974</v>
+        <v>5.321632555621059</v>
       </c>
       <c r="E18">
-        <v>17.2829649240227</v>
+        <v>17.21800736988634</v>
       </c>
       <c r="F18">
-        <v>21.65319166688729</v>
+        <v>20.70774287234374</v>
       </c>
       <c r="G18">
-        <v>28.45149981914238</v>
+        <v>26.47361391717947</v>
       </c>
       <c r="H18">
-        <v>5.044825847096281</v>
+        <v>5.022892750618943</v>
       </c>
       <c r="J18">
-        <v>9.671365825325077</v>
+        <v>9.814942401273274</v>
       </c>
       <c r="K18">
-        <v>13.98693831147373</v>
+        <v>13.25404478687502</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.51655483547169</v>
       </c>
       <c r="M18">
-        <v>14.53023175944023</v>
+        <v>8.393582840676933</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.40516742244166</v>
       </c>
       <c r="P18">
-        <v>11.48067671063567</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.46724673133348</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.24937762399276</v>
+        <v>15.69861741138822</v>
       </c>
       <c r="C19">
-        <v>10.54352242657772</v>
+        <v>11.25510366028835</v>
       </c>
       <c r="D19">
-        <v>4.934809438484032</v>
+        <v>5.121572055202495</v>
       </c>
       <c r="E19">
-        <v>23.65763562081006</v>
+        <v>23.59589128202586</v>
       </c>
       <c r="F19">
-        <v>22.7594307315604</v>
+        <v>21.72867085175529</v>
       </c>
       <c r="G19">
-        <v>30.45621659146215</v>
+        <v>28.28929751489498</v>
       </c>
       <c r="H19">
-        <v>3.989736573012092</v>
+        <v>3.958188846662506</v>
       </c>
       <c r="J19">
-        <v>10.04854856425833</v>
+        <v>10.16633384705576</v>
       </c>
       <c r="K19">
-        <v>14.60727672702438</v>
+        <v>13.77913787510284</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.89197834608692</v>
       </c>
       <c r="M19">
-        <v>14.7856685823893</v>
+        <v>8.826594642082926</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.65475016484502</v>
       </c>
       <c r="P19">
-        <v>11.54536119765787</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.49871060478683</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.95568415368508</v>
+        <v>16.29235181629115</v>
       </c>
       <c r="C20">
-        <v>11.44264650688563</v>
+        <v>12.26955708696715</v>
       </c>
       <c r="D20">
-        <v>4.698759768913409</v>
+        <v>4.910495020647685</v>
       </c>
       <c r="E20">
-        <v>33.86885639366306</v>
+        <v>33.7923481264643</v>
       </c>
       <c r="F20">
-        <v>24.74535945835266</v>
+        <v>23.46641924611619</v>
       </c>
       <c r="G20">
-        <v>33.9412819900616</v>
+        <v>31.69759357948783</v>
       </c>
       <c r="H20">
-        <v>3.622041335757321</v>
+        <v>3.56855609510382</v>
       </c>
       <c r="J20">
-        <v>10.66398288782334</v>
+        <v>10.56185413132772</v>
       </c>
       <c r="K20">
-        <v>15.59958869664377</v>
+        <v>14.55308322941581</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.38064846984197</v>
       </c>
       <c r="M20">
-        <v>15.54062634389999</v>
+        <v>9.584721043999151</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.37089385080774</v>
       </c>
       <c r="P20">
-        <v>11.57590436290573</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.47585077065191</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.01967281154862</v>
+        <v>17.18875824898154</v>
       </c>
       <c r="C21">
-        <v>12.1930714159943</v>
+        <v>12.93735176108439</v>
       </c>
       <c r="D21">
-        <v>4.780126094649385</v>
+        <v>5.092187679044421</v>
       </c>
       <c r="E21">
-        <v>36.69835843921953</v>
+        <v>36.58533094239399</v>
       </c>
       <c r="F21">
-        <v>25.86838566100442</v>
+        <v>24.026010245457</v>
       </c>
       <c r="G21">
-        <v>35.6653303602992</v>
+        <v>34.86603870408314</v>
       </c>
       <c r="H21">
-        <v>3.978172160731396</v>
+        <v>3.899325215653004</v>
       </c>
       <c r="J21">
-        <v>10.8809032915354</v>
+        <v>9.709761475422823</v>
       </c>
       <c r="K21">
-        <v>15.89113444505329</v>
+        <v>14.49234831000586</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.14313256986529</v>
       </c>
       <c r="M21">
-        <v>16.48852272399891</v>
+        <v>9.879161797206363</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.18232697846858</v>
       </c>
       <c r="P21">
-        <v>11.34637463538024</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.22573289551466</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.66882066710349</v>
+        <v>17.73197365235209</v>
       </c>
       <c r="C22">
-        <v>12.63278403404871</v>
+        <v>13.31029691640836</v>
       </c>
       <c r="D22">
-        <v>4.843675935843509</v>
+        <v>5.224874080237129</v>
       </c>
       <c r="E22">
-        <v>38.03692105818443</v>
+        <v>37.90032480398173</v>
       </c>
       <c r="F22">
-        <v>26.52004440845773</v>
+        <v>24.29948718437912</v>
       </c>
       <c r="G22">
-        <v>36.64254133637813</v>
+        <v>36.87280845666551</v>
       </c>
       <c r="H22">
-        <v>4.187700996620566</v>
+        <v>4.092805806185775</v>
       </c>
       <c r="J22">
-        <v>11.00025099644442</v>
+        <v>9.111186267429979</v>
       </c>
       <c r="K22">
-        <v>16.04645723873718</v>
+        <v>14.40835277629328</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.95791792357269</v>
       </c>
       <c r="M22">
-        <v>17.0617984470102</v>
+        <v>10.04103629626839</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.66462169334213</v>
       </c>
       <c r="P22">
-        <v>11.19162747800209</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.06032150019916</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.32485134372746</v>
+        <v>17.45239490777201</v>
       </c>
       <c r="C23">
-        <v>12.39970758011142</v>
+        <v>13.13395893538567</v>
       </c>
       <c r="D23">
-        <v>4.809950051742256</v>
+        <v>5.147315693555236</v>
       </c>
       <c r="E23">
-        <v>37.32745587068732</v>
+        <v>37.20457769064849</v>
       </c>
       <c r="F23">
-        <v>26.17240790635348</v>
+        <v>24.19918698107255</v>
       </c>
       <c r="G23">
-        <v>36.12140757416237</v>
+        <v>35.61824001575985</v>
       </c>
       <c r="H23">
-        <v>4.076183696648989</v>
+        <v>3.990632045783277</v>
       </c>
       <c r="J23">
-        <v>10.93608133425744</v>
+        <v>9.533839240873252</v>
       </c>
       <c r="K23">
-        <v>15.96260043524008</v>
+        <v>14.47793433298214</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.07286759647964</v>
       </c>
       <c r="M23">
-        <v>16.75793886168202</v>
+        <v>9.975309193933873</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.42113157486587</v>
       </c>
       <c r="P23">
-        <v>11.27412793367719</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.15117364748827</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.96703000082806</v>
+        <v>16.30022979798699</v>
       </c>
       <c r="C24">
-        <v>11.48144316641529</v>
+        <v>12.31627987183828</v>
       </c>
       <c r="D24">
-        <v>4.678053114668328</v>
+        <v>4.888736484522975</v>
       </c>
       <c r="E24">
-        <v>34.53099925936286</v>
+        <v>34.45426567432161</v>
       </c>
       <c r="F24">
-        <v>24.85266519589911</v>
+        <v>23.56850171437767</v>
       </c>
       <c r="G24">
-        <v>34.13906972117652</v>
+        <v>31.866661480511</v>
       </c>
       <c r="H24">
-        <v>3.646741983846477</v>
+        <v>3.592939307836646</v>
       </c>
       <c r="J24">
-        <v>10.70326352320215</v>
+        <v>10.60518838434775</v>
       </c>
       <c r="K24">
-        <v>15.66565617424809</v>
+        <v>14.61125419798245</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.42485539510507</v>
       </c>
       <c r="M24">
-        <v>15.56058448381463</v>
+        <v>9.628732885180757</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.39100477682233</v>
       </c>
       <c r="P24">
-        <v>11.58871754736695</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.48431608216976</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38275425618742</v>
+        <v>14.8552963900813</v>
       </c>
       <c r="C25">
-        <v>10.41368191587719</v>
+        <v>11.10790368436837</v>
       </c>
       <c r="D25">
-        <v>4.527216204309184</v>
+        <v>4.674402755143959</v>
       </c>
       <c r="E25">
-        <v>31.27642538173633</v>
+        <v>31.23484880222624</v>
       </c>
       <c r="F25">
-        <v>23.42640729416441</v>
+        <v>22.38279572411627</v>
       </c>
       <c r="G25">
-        <v>31.98755550965284</v>
+        <v>29.85783797727024</v>
       </c>
       <c r="H25">
-        <v>3.166987990932316</v>
+        <v>3.137698569887581</v>
       </c>
       <c r="J25">
-        <v>10.47303098723704</v>
+        <v>10.51233463550337</v>
       </c>
       <c r="K25">
-        <v>15.38689196267655</v>
+        <v>14.50892234268768</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.62818897980579</v>
       </c>
       <c r="M25">
-        <v>14.16844599038092</v>
+        <v>9.089055043439929</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.04660260427521</v>
       </c>
       <c r="P25">
-        <v>11.93342541207045</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.81642717674995</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
